--- a/medicine/Enfance/Les_Mille_et_Une_Nuits/Les_Mille_et_Une_Nuits.xlsx
+++ b/medicine/Enfance/Les_Mille_et_Une_Nuits/Les_Mille_et_Une_Nuits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Mille et Une Nuits (persan : هزار و یک شب, hazâr-o yek chab ; arabe : كتاب ألف ليلة وليلة, kitāb alf layla wa layla, trad. litt. : « le livre de mille nuits et une nuit ») est un recueil anonyme de contes populaires en langue arabe d'origine persane, indienne et arabe.
@@ -513,11 +525,13 @@
           <t>Les origines du recueil</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux témoignages du Xe siècle, le premier dû à Al-Mas'ûdî, le second à Ibn al-Nadim, indiquent que Les Mille et Une nuits seraient au départ le résultat de l'adaptation en arabe d'un ouvrage persan intitulé Hézâr afsâna (Mille contes). Il s'agirait donc d'une transmission livresque. Ces contes proviendraient essentiellement de trois grands fonds principaux, une source indo-persane à coloration hellénistique se situant entre les IIIe et VIIe siècles, un fonds arabe datant de la période du pouvoir des califes de Bagdad entre les IXe et XIe siècles et, enfin, un fonds populaire égyptien datant des XIIe et XIIIe siècles qui ont continué à se transformer, par suppressions ou adjonctions continues, jusqu'au XVIe siècle, mais n’ont jamais fait partie de l’horizon officiel des lettres arabes[1]. Cependant, aucune preuve matérielle du Hézâr afsâna permettant d'affirmer une potentielle origine persane n'a été trouvée[2]. De plus les scènes du recueil ont majoritairement lieu aux cours de Bagdad ou du Caire, villes fondées par les Arabes, sur les bords du Tigre, de l'Euphrate ou du Nil et les personnages sont presque exclusivement musulmans. Le domaine fantastique dont il est question est celui de la mythologie arabe et le contexte historique est très souvent celui du califat abbasside. Bien sûr, plusieurs contes ont des origines persanes, bien que l'on ignore comment ils sont entrés dans la collection[3] : ces histoires incluent le cycle du « Roi Jali'ad et ses Wazir Shimas » et « Les Dix Wazirs ou l'histoire du roi Azadbakht et de son fils » (dérivé du Bakhtiyārnāma persan du VIIe siècle)[4].
-Le plus ancien manuscrit connu est un fragment du IXe siècle publié par l'universitaire américaine Nabia Abbott[5]. Il existe encore un manuscrit du XIVe siècle conservé à Tübingen, d'une histoire divisée en nuits, al-Sûl et al-Shumûl. Le manuscrit utilisé par Antoine Galland dans sa traduction (1704-1717) date du XVe siècle. Il est en trois volumes et lui fut envoyé d'Alep. Il est actuellement conservé à la Bibliothèque nationale de France — ms ar. 3609 à 3611. Les travaux d'Emmanuel Cosquin montrent que le récit-cadre des Nuits, c'est-à-dire l'histoire du roi avec Shéhérazade, qui est ici un dispositif littéraire, possède une origine indienne, comme d'ailleurs de nombreux autres contes du recueil. Il existe plusieurs manuscrits de référence pour toutes les éditions actuelles, dont celui de Būlāq (Le Caire), 1835, révisé en 1863 et 1935, ou les manuscrits de la branche syrienne, qui avaient servi de base à Galland. Les traductions actuelles sont parfois issues de recompositions de plusieurs manuscrits. Il est donc difficile d'identifier un recueil « pur » et on peut même se demander si cela a un sens. Plusieurs éditeurs excluent des Nuits des contes célèbres mais considérés comme des ajouts postérieurs au noyau originel, ainsi Khawam qui écarte Sinbad le marin, ou Miquel et Bencheik (La Pléiade) qui n'ajoutent qu'en appendice les célébrissimes Aladin et la lampe merveilleuse et Ali Baba et les Quarante Voleurs. S'agissant de ce dernier conte (d'origine turque ?), il est en effet vraisemblable qu'il fut raconté oralement à Galland par un de ses informateurs. Galland le mit par écrit, en faisant l'un des contes les plus célèbres du recueil.
-La circulation d'un certain nombre d'histoires du recueil semble s'effectuer en Europe occidentale dès le XIIe siècle avec, par exemple, l'histoire de Floire et Blancheflor qui s'inspirerait de celle de Neema et Noam qui fait partie du recueil[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux témoignages du Xe siècle, le premier dû à Al-Mas'ûdî, le second à Ibn al-Nadim, indiquent que Les Mille et Une nuits seraient au départ le résultat de l'adaptation en arabe d'un ouvrage persan intitulé Hézâr afsâna (Mille contes). Il s'agirait donc d'une transmission livresque. Ces contes proviendraient essentiellement de trois grands fonds principaux, une source indo-persane à coloration hellénistique se situant entre les IIIe et VIIe siècles, un fonds arabe datant de la période du pouvoir des califes de Bagdad entre les IXe et XIe siècles et, enfin, un fonds populaire égyptien datant des XIIe et XIIIe siècles qui ont continué à se transformer, par suppressions ou adjonctions continues, jusqu'au XVIe siècle, mais n’ont jamais fait partie de l’horizon officiel des lettres arabes. Cependant, aucune preuve matérielle du Hézâr afsâna permettant d'affirmer une potentielle origine persane n'a été trouvée. De plus les scènes du recueil ont majoritairement lieu aux cours de Bagdad ou du Caire, villes fondées par les Arabes, sur les bords du Tigre, de l'Euphrate ou du Nil et les personnages sont presque exclusivement musulmans. Le domaine fantastique dont il est question est celui de la mythologie arabe et le contexte historique est très souvent celui du califat abbasside. Bien sûr, plusieurs contes ont des origines persanes, bien que l'on ignore comment ils sont entrés dans la collection : ces histoires incluent le cycle du « Roi Jali'ad et ses Wazir Shimas » et « Les Dix Wazirs ou l'histoire du roi Azadbakht et de son fils » (dérivé du Bakhtiyārnāma persan du VIIe siècle).
+Le plus ancien manuscrit connu est un fragment du IXe siècle publié par l'universitaire américaine Nabia Abbott. Il existe encore un manuscrit du XIVe siècle conservé à Tübingen, d'une histoire divisée en nuits, al-Sûl et al-Shumûl. Le manuscrit utilisé par Antoine Galland dans sa traduction (1704-1717) date du XVe siècle. Il est en trois volumes et lui fut envoyé d'Alep. Il est actuellement conservé à la Bibliothèque nationale de France — ms ar. 3609 à 3611. Les travaux d'Emmanuel Cosquin montrent que le récit-cadre des Nuits, c'est-à-dire l'histoire du roi avec Shéhérazade, qui est ici un dispositif littéraire, possède une origine indienne, comme d'ailleurs de nombreux autres contes du recueil. Il existe plusieurs manuscrits de référence pour toutes les éditions actuelles, dont celui de Būlāq (Le Caire), 1835, révisé en 1863 et 1935, ou les manuscrits de la branche syrienne, qui avaient servi de base à Galland. Les traductions actuelles sont parfois issues de recompositions de plusieurs manuscrits. Il est donc difficile d'identifier un recueil « pur » et on peut même se demander si cela a un sens. Plusieurs éditeurs excluent des Nuits des contes célèbres mais considérés comme des ajouts postérieurs au noyau originel, ainsi Khawam qui écarte Sinbad le marin, ou Miquel et Bencheik (La Pléiade) qui n'ajoutent qu'en appendice les célébrissimes Aladin et la lampe merveilleuse et Ali Baba et les Quarante Voleurs. S'agissant de ce dernier conte (d'origine turque ?), il est en effet vraisemblable qu'il fut raconté oralement à Galland par un de ses informateurs. Galland le mit par écrit, en faisant l'un des contes les plus célèbres du recueil.
+La circulation d'un certain nombre d'histoires du recueil semble s'effectuer en Europe occidentale dès le XIIe siècle avec, par exemple, l'histoire de Floire et Blancheflor qui s'inspirerait de celle de Neema et Noam qui fait partie du recueil.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Un recueil peu étudié</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement aux fables animalières Kalila et Dimna ou aux Maqâmât d'Al-Hariri, le recueil de contes est considéré comme marginal dans la littérature arabe[7], et relève non pas des belles-lettres (adâb) mais d'un registre populaire[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux fables animalières Kalila et Dimna ou aux Maqâmât d'Al-Hariri, le recueil de contes est considéré comme marginal dans la littérature arabe, et relève non pas des belles-lettres (adâb) mais d'un registre populaire.
 Il est possible que l'ouvrage original en persan, le Hazār-afsāna, ait relevé du genre du « miroir des princes », et contenu des récits exemplaires destinés à l'éducation des gouvernants. Mais à côté d'un récit-cadre qui est resté stable (l'histoire de Shéhérazade, qui encadre toutes les autres), le reste des contes aurait alors considérablement changé — comme le titre persan d'ailleurs — et une nouvelle matière y a été introduite. L'absence du recueil persan — les seuls manuscrits en persan connus sont des traductions du XIXe siècle réalisées d'après la traduction d'Antoine Galland — empêche d'en savoir plus.
 Ces contes furent ensuite diffusés en Europe, profitant de la mode de l'orientalisme et du travail de Galland.
 </t>
@@ -581,25 +597,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La traduction d'Antoine Galland
-La première traduction occidentale est l'œuvre d'Antoine Galland publiée de 1704 à 1717[9], mais une partie a été rédigée par lui-même, en s'inspirant des récits que lui avait contés son assesseur syrien, Hanna Dyâb[10]. Pour faire prendre corps et esprit au personnage de Shéhérazade, cet antiquaire du roi (puis professeur de langue arabe au Collège de France) s'est inspiré de Madame d'Aulnoy et de la marquise d'O, dame du palais de la duchesse de Bourgogne.
+          <t>La traduction d'Antoine Galland</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première traduction occidentale est l'œuvre d'Antoine Galland publiée de 1704 à 1717, mais une partie a été rédigée par lui-même, en s'inspirant des récits que lui avait contés son assesseur syrien, Hanna Dyâb. Pour faire prendre corps et esprit au personnage de Shéhérazade, cet antiquaire du roi (puis professeur de langue arabe au Collège de France) s'est inspiré de Madame d'Aulnoy et de la marquise d'O, dame du palais de la duchesse de Bourgogne.
 La traduction de Galland a été complétée par Jacques Cazotte et Denis Chavis pour les volumes XXXVII à XLI du Cabinet des fées (Genève, 1784-1793) sous le titre Les Veillées du Sultan Schahriar.
-Selon Abdelfattah Kilito, cette compilation de récits anonymes ne remplit aucun des critères classiques de la littérature arabe : un style noble, un auteur précis et une forme fixe ; de plus, elle met en avant de nombreux particularismes et dialectes locaux, bien éloignés de l'horizon des lettres, ce qui laisse à penser que si Galland n'avait pas transmis cette mémoire, elle aurait disparu. Comme il est dit plus haut, Antoine Galland a notamment intégré aux Mille et Une Nuits des récits n'y figurant pas à l'origine. Les Aventures de Sinbad, Aladin et Ali Baba ne faisaient pas partie de l'œuvre primitive, si bien que Jacques Finné souligne que Galland est sans doute le seul traducteur de l'histoire « à avoir traduit et donné corps à un texte qui n'existait pas encore officiellement »[11].
-La traduction de Joseph-Charles Mardrus
-Insatisfait de la traduction Galland, le docteur Joseph-Charles Mardrus, né au Caire dans une famille d'origine arménienne, ami d'André Gide, publia une nouvelle traduction des Mille et Une Nuits en seize volumes de 1899 à 1904, qui parut d'abord dans La Revue blanche jusqu'en 1902 — tome I à XI — puis directement chez Charpentier et Fasquelle. Mardrus dédie les tomes successifs à ses amis : Paul Valéry, Anatole France, Félix Fénéon, etc., et facétieusement à « Sidi Robert de Montesquiou, ben Artagnan al Fezenzaki ».
-Dans À la recherche du temps perdu de Marcel Proust, le narrateur, par exemple, évoque sa mère qui n'ose le priver de la traduction de Mardrus tout en lui conseillant de s'en tenir à celle de Galland[12]. La version de Mardrus se voulait plus complète que celle de Galland et plus fidèle aux textes arabes. Elle traduit par exemple les poèmes présents, fort nombreux, et qui étaient absents de la version de Galland. Cependant, sa version demeure peu fidèle ; d'abord parce qu'elle se fonde sur un ensemble varié de textes (l’édition de Boulaq, la traduction de Scott, le recueil d’Artin Pacha et de Spitta bey), et même d'histoires hindoustanies ; ensuite parce qu'elle en exacerbe l'exotisme et le faste. La traduction littérale, qui comprend également des pseudo-calques de la langue arabe, l'amène parfois aux non-sens, aux pléonasmes et aux lapalissades[13], comme c'est le cas pour le titre, Le Livre des mille nuits et une nuit[14]. Sa traduction se caractérise par un style fleuri, un penchant pour l'orientalisme qui la pousse fréquemment vers le cliché et un érotisme débordant, absent de la version originale.
-La traduction de René R. Khawam
-Parue dans les années 1960, puis entièrement refondue dans les années 1980, la traduction de René R. Khawam se fonde sur une douzaine de manuscrits anciens[15]. Le traducteur s'attache à restituer le registre du discours, tantôt élégiaque, tantôt trivial, et donne à lire les poèmes qui émaillent la trame du récit. Comme Khawam s'en explique en introduction, les aventures d'Aladin, de Sinbad et d'Ali-Baba n'apparaissent pas dans son édition : Galland étant en effet le principal responsable de leur adjonction, il préfère traduire et publier ces œuvres dans des volumes distincts. Par ailleurs, s'il exploite le manuscrit de Galland, il développe les descriptions érotiques que ce dernier avait éludées (en accord avec les mœurs de la cour de Louis XIV) sans toutefois tomber dans les excès qu'il reproche à Mardrus[16]. En outre, il laisse de côté le discours moralisateur des Mille et Une Nuits, absent des textes originaux et provenant d'ajouts anonymes intégrés à l'édition arabe de Boulaq parue en 1835, sur laquelle Mardrus avait établi sa propre traduction.
-La traduction d'André Miquel et Jamel Eddine Bencheikh
-En 1991, pour la Bibliothèque de la Pléiade, André Miquel et Jamel Eddine Bencheikh, érudits et spécialistes du sujet, publient une nouvelle traduction. Sensiblement différente des versions citées ci-dessus, leur traduction se revendique comme intégrale et exacte fondée sur l’édition de Boulaq, du nom de la ville égyptienne où le texte a été imprimé pour la première fois en 1835[17].
-Les traductions anglaises
-Les premières traductions en anglais avaient été faites à partir du texte de Galland. Edward William Lane publia la première traduction en anglais basée sur le texte en arabe, en trois volumes publiés entre 1839 et 1841.
-En revanche, Richard Francis Burton publia une traduction complète en anglais, à partir de la version Boulaq (1835). Cette traduction comporte 16 volumes publiés de 1885 à 1888. En raison des images sexuelles contenues dans les textes sources que Burton a encore accentués, notamment en ajoutant de nombreuses notes de bas de page et annexes sur les mœurs sexuelles orientales, et des lois strictes de l'époque victorienne sur les contenus obscènes, ces traductions ont été imprimées comme éditions privées réservées aux abonnés. Les 10 volumes originaux de Burton ont été suivis de six autres (sept dans l'édition de Bagdad et peut-être d'autres) intitulés Les nuits supplémentaires aux mille nuits et une nuit, qui ont été imprimés entre 1886 et 1888.
-En 2008, une nouvelle traduction en anglais a été publiée par Penguin Classics en trois volumes. Les textes sont traduits par Malcolm C. Lyons et Ursula Lyons avec une introduction et des annotations de Robert Irwin. Il s'agit de la première traduction complète de l'édition Macnaghten ou Calcutta II (recension égyptienne) depuis celle de Burton.
-En 2021, Yasmine Seale (en), écrivaine britanno-syrienne, publie The Annotated Arabian Nights: Tales from 1001 Nights[18].
-La traduction en douala d’Isaac Moumé Etia
-La traduction en douala a été faite en 1930, par le Camerounais Isaac Moumé Etia, à partir de l'œuvre d'Antoine Galland publiée de 1704 à 1717.
-Il en avait fait paraître le début en 1930 jusqu’en 1939, sous le titre « Ikol’a bulu iwo na bulu bô »[19], (les  Mille et une nuits: adaptation en douala). Œuvre en plusieurs volumes qui rencontra un grand succès auprès de ses compatriotes et l'administration coloniale française.
+Selon Abdelfattah Kilito, cette compilation de récits anonymes ne remplit aucun des critères classiques de la littérature arabe : un style noble, un auteur précis et une forme fixe ; de plus, elle met en avant de nombreux particularismes et dialectes locaux, bien éloignés de l'horizon des lettres, ce qui laisse à penser que si Galland n'avait pas transmis cette mémoire, elle aurait disparu. Comme il est dit plus haut, Antoine Galland a notamment intégré aux Mille et Une Nuits des récits n'y figurant pas à l'origine. Les Aventures de Sinbad, Aladin et Ali Baba ne faisaient pas partie de l'œuvre primitive, si bien que Jacques Finné souligne que Galland est sans doute le seul traducteur de l'histoire « à avoir traduit et donné corps à un texte qui n'existait pas encore officiellement ».
 </t>
         </is>
       </c>
@@ -625,12 +631,204 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les traductions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La traduction de Joseph-Charles Mardrus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Insatisfait de la traduction Galland, le docteur Joseph-Charles Mardrus, né au Caire dans une famille d'origine arménienne, ami d'André Gide, publia une nouvelle traduction des Mille et Une Nuits en seize volumes de 1899 à 1904, qui parut d'abord dans La Revue blanche jusqu'en 1902 — tome I à XI — puis directement chez Charpentier et Fasquelle. Mardrus dédie les tomes successifs à ses amis : Paul Valéry, Anatole France, Félix Fénéon, etc., et facétieusement à « Sidi Robert de Montesquiou, ben Artagnan al Fezenzaki ».
+Dans À la recherche du temps perdu de Marcel Proust, le narrateur, par exemple, évoque sa mère qui n'ose le priver de la traduction de Mardrus tout en lui conseillant de s'en tenir à celle de Galland. La version de Mardrus se voulait plus complète que celle de Galland et plus fidèle aux textes arabes. Elle traduit par exemple les poèmes présents, fort nombreux, et qui étaient absents de la version de Galland. Cependant, sa version demeure peu fidèle ; d'abord parce qu'elle se fonde sur un ensemble varié de textes (l’édition de Boulaq, la traduction de Scott, le recueil d’Artin Pacha et de Spitta bey), et même d'histoires hindoustanies ; ensuite parce qu'elle en exacerbe l'exotisme et le faste. La traduction littérale, qui comprend également des pseudo-calques de la langue arabe, l'amène parfois aux non-sens, aux pléonasmes et aux lapalissades, comme c'est le cas pour le titre, Le Livre des mille nuits et une nuit. Sa traduction se caractérise par un style fleuri, un penchant pour l'orientalisme qui la pousse fréquemment vers le cliché et un érotisme débordant, absent de la version originale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les traductions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La traduction de René R. Khawam</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parue dans les années 1960, puis entièrement refondue dans les années 1980, la traduction de René R. Khawam se fonde sur une douzaine de manuscrits anciens. Le traducteur s'attache à restituer le registre du discours, tantôt élégiaque, tantôt trivial, et donne à lire les poèmes qui émaillent la trame du récit. Comme Khawam s'en explique en introduction, les aventures d'Aladin, de Sinbad et d'Ali-Baba n'apparaissent pas dans son édition : Galland étant en effet le principal responsable de leur adjonction, il préfère traduire et publier ces œuvres dans des volumes distincts. Par ailleurs, s'il exploite le manuscrit de Galland, il développe les descriptions érotiques que ce dernier avait éludées (en accord avec les mœurs de la cour de Louis XIV) sans toutefois tomber dans les excès qu'il reproche à Mardrus. En outre, il laisse de côté le discours moralisateur des Mille et Une Nuits, absent des textes originaux et provenant d'ajouts anonymes intégrés à l'édition arabe de Boulaq parue en 1835, sur laquelle Mardrus avait établi sa propre traduction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les traductions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La traduction d'André Miquel et Jamel Eddine Bencheikh</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1991, pour la Bibliothèque de la Pléiade, André Miquel et Jamel Eddine Bencheikh, érudits et spécialistes du sujet, publient une nouvelle traduction. Sensiblement différente des versions citées ci-dessus, leur traduction se revendique comme intégrale et exacte fondée sur l’édition de Boulaq, du nom de la ville égyptienne où le texte a été imprimé pour la première fois en 1835.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les traductions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les traductions anglaises</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières traductions en anglais avaient été faites à partir du texte de Galland. Edward William Lane publia la première traduction en anglais basée sur le texte en arabe, en trois volumes publiés entre 1839 et 1841.
+En revanche, Richard Francis Burton publia une traduction complète en anglais, à partir de la version Boulaq (1835). Cette traduction comporte 16 volumes publiés de 1885 à 1888. En raison des images sexuelles contenues dans les textes sources que Burton a encore accentués, notamment en ajoutant de nombreuses notes de bas de page et annexes sur les mœurs sexuelles orientales, et des lois strictes de l'époque victorienne sur les contenus obscènes, ces traductions ont été imprimées comme éditions privées réservées aux abonnés. Les 10 volumes originaux de Burton ont été suivis de six autres (sept dans l'édition de Bagdad et peut-être d'autres) intitulés Les nuits supplémentaires aux mille nuits et une nuit, qui ont été imprimés entre 1886 et 1888.
+En 2008, une nouvelle traduction en anglais a été publiée par Penguin Classics en trois volumes. Les textes sont traduits par Malcolm C. Lyons et Ursula Lyons avec une introduction et des annotations de Robert Irwin. Il s'agit de la première traduction complète de l'édition Macnaghten ou Calcutta II (recension égyptienne) depuis celle de Burton.
+En 2021, Yasmine Seale (en), écrivaine britanno-syrienne, publie The Annotated Arabian Nights: Tales from 1001 Nights.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les traductions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La traduction en douala d’Isaac Moumé Etia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La traduction en douala a été faite en 1930, par le Camerounais Isaac Moumé Etia, à partir de l'œuvre d'Antoine Galland publiée de 1704 à 1717.
+Il en avait fait paraître le début en 1930 jusqu’en 1939, sous le titre « Ikol’a bulu iwo na bulu bô », (les  Mille et une nuits: adaptation en douala). Œuvre en plusieurs volumes qui rencontra un grand succès auprès de ses compatriotes et l'administration coloniale française.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Les récits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mille et Une Nuits sont constituées de contes enchâssés, et de personnages en miroir les uns par rapport aux autres[20].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mille et Une Nuits sont constituées de contes enchâssés, et de personnages en miroir les uns par rapport aux autres.
 Le sultan Shahriar, en représailles à la suite de l'infidélité de son épouse, la condamne à mort et, afin d'être certain de ne plus être trompé, il décide de faire exécuter chaque matin la femme qu'il aura épousée la veille. Shéhérazade, la fille du grand vizir, se propose d'épouser le sultan. Aidée de sa sœur, elle raconte chaque nuit au sultan une histoire dont la suite est reportée au lendemain. Le sultan ne peut se résoudre alors à tuer la jeune femme ; il reporte l'exécution de jour en jour afin de connaître la suite du récit commencé la veille. Peu à peu, Shéhérazade gagne la confiance de son mari et finalement, au bout de mille et une nuits, il renonce à la faire exécuter.
 Au XXIe siècle, les Mille et Une Nuits sont constituées d'un centre commun, une trentaine d'histoires (le récit-cadre ou l'histoire de Shéhérazade, Le Marchand et le Génie, Le Pêcheur et le Génie, Les Dames de Bagdad, Les Trois Calenders, Les Trois Pommes, Le Bossu et les histoires qui y sont incluses) et d'un ensemble de récits extrêmement variés qui relèvent aussi bien de la littérature savante que d'une littérature plus « populaire ». On y rencontre par exemple des djinns, des éfrits et des goules. Mais s'il fallait caractériser les Mille et Une Nuits, il faudrait les associer aux centaines d'autres recueils de contes du même genre qui étaient en circulation dans le domaine arabe (les Mille et Une Nuits ne sont pas un livre isolé).
 Voici une liste de quelques contes des Mille et Une Nuits parmi les plus connus. Certains ne sont pas issus des plus anciens manuscrits connus, mais ont été ajoutés par la suite. C'est le cas des sept voyages de Sindbad le marin, d'Ali Baba, d'Aladin et la lampe merveilleuse.
@@ -663,64 +861,68 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Le succès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque parurent les premières traductions d'Antoine Galland, l'audience du livre fut immédiate en Europe, et devint rapidement l'objet d'étude et un succès de la littérature de colportage. Les écrivains du XIXe siècle, enfiévrés d'Orient, en firent leur livre de chevet. Jules Janin, enthousiasmé, disait que sa lecture relevait presque d'un « acte patriotique ».[réf. nécessaire] Plus tard, le livre devint l'un des premiers titres à succès des collections Hachette et de la bibliothèque de gare.
 Dans certaines versions éditées dans les pays arabes, un narrateur masculin se trouve adjoint à Shéhérazade pour rétablir l'équilibre des sexes et amoindrir l'atteinte à l'autorité du sultan, si habilement contournée par l'astuce de la jeune femme.
-Une version du livre fut interdite en Égypte en 1980. Une seconde, publiée en 2010 par un organisme gouvernemental, fut attaquée par un groupe d'avocats islamistes égyptiens (les « Avocats sans frontières ») pour obscénité. L'ouvrage est propre, selon eux, à encourager le « vice » et le « péché ». En s'appuyant sur un article du code pénal égyptien punissant de deux ans de prison les « offenses à la décence publique », ils demandèrent la saisie de l'ouvrage et la poursuite de ses éditeurs[21],[22]. En 2007 sort le jeu Sonic and the Secret Rings qui s'inspire des Mille et Une Nuits.
+Une version du livre fut interdite en Égypte en 1980. Une seconde, publiée en 2010 par un organisme gouvernemental, fut attaquée par un groupe d'avocats islamistes égyptiens (les « Avocats sans frontières ») pour obscénité. L'ouvrage est propre, selon eux, à encourager le « vice » et le « péché ». En s'appuyant sur un article du code pénal égyptien punissant de deux ans de prison les « offenses à la décence publique », ils demandèrent la saisie de l'ouvrage et la poursuite de ses éditeurs,. En 2007 sort le jeu Sonic and the Secret Rings qui s'inspire des Mille et Une Nuits.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux artistes ont illustré Les Mille et Une Nuits, comme les Français Gustave Doré (Strasbourg, 1832 - Paris, 1883), Léon Carré (Granville, 1878 - Alger, 1942), Roger Blachon (Romans-sur-Isère, 1941 - Marseille, 2008), Françoise Boudignon, André Dahan, Jacqueline Desmiers de Chenon (éditions Mame - 1930), Amato Soro, Albert Robida, Alcide Théophile Robaudi, Victor Masson (Pont-à-Mousson, 1849 - Toulon, 1917) et Marcelino Truong, l'Anglais William Blake, Frank Brangwyn (Bruges, 1867 - Ditchling, Sussex, 1956) (éditions London, Philadephia - 1896), les Italiens Vittorio Zecchin (Murano, 1878 – Murano, 1947) et Emanuele Luzzati, l'Allemands Morgan, F. Gross, l'Algérien Mohammed Racim (Alger, 1896 - idem, 1975) et le Turc Emre Orhun.
 			Histoire d'Abou Qir et d'Abou Sir par Léon Carré
@@ -731,34 +933,39 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Au cinéma et à la télévision
-Les adaptations au cinéma et à la télévision ont été nombreuses. On peut citer :
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Au cinéma et à la télévision</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les adaptations au cinéma et à la télévision ont été nombreuses. On peut citer :
 1926 : Les Aventures du prince Ahmed (Die Abenteuer des Prinzen Achmed), film d'animation allemand réalisé par Lotte Reiniger
 1928 : Shéhérazade (Geheimnisse des Orients) de Alexandre Volkoff
 1940 : Les Mille et Une Nuits (Alf layla wa layla), film égyptien réalisé par Togo Mizrahi
@@ -778,21 +985,124 @@
 2003 : Sinbad : La Légende des sept mers (Sinbad - Legend of the Seven Seas), film d'animation américain réalisé par Tim Johnson et Patrick Gilmore
 2014 : Les Mille et Une Nuits, série télévisée marocaine diffusée durant le mois de ramadan sur la chaîne Medi1TV.
 2015 : Les Mille et Une Nuits (As 1001 Noites), film portugais en trois parties réalisé par Miguel Gomes, les trois parties étant L'Inquiet (O Inquieto ), Le Désolé (O Desolado) et L’Enchanté (O Encantado)
-2019 : Aladdin, film américain réalisé par Guy Ritchie
-Autres utilisations au cinéma et à la télévision
-Le film Dunia (2005) de Jocelyne Saab porte notamment sur l'interdiction des Mille et Une Nuits en Égypte pour « pornographie ».
-La trame de Dead Man Talking (2012) de Patrick Ridremont est celle des Mille et Une Nuits[23], avec un condamné à mort profitant d'un vide juridique quant à la durée de l'expression de ses dernières volontés pour repousser l'échéance.
-Magi, un manga de Ohtaka Shinobu, qui comporte plusieurs noms des personnages de Mille et Une Nuits tels qu'Aladdin, Alibaba et les 40 voleurs, Sinbad et Shéhérazade. Le manga se situe aussi au Moyen-Orient.
-Au théâtre
-Les mille et une nuits, féerie en quatre actes et onze tableaux, par MM. Cogniard, représentée pour la première fois, à Paris, sur le théâtre de la Porte-Saint-Martin, le 24 janvier 1843.
+2019 : Aladdin, film américain réalisé par Guy Ritchie</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres utilisations au cinéma et à la télévision</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Le film Dunia (2005) de Jocelyne Saab porte notamment sur l'interdiction des Mille et Une Nuits en Égypte pour « pornographie ».
+La trame de Dead Man Talking (2012) de Patrick Ridremont est celle des Mille et Une Nuits, avec un condamné à mort profitant d'un vide juridique quant à la durée de l'expression de ses dernières volontés pour repousser l'échéance.
+Magi, un manga de Ohtaka Shinobu, qui comporte plusieurs noms des personnages de Mille et Une Nuits tels qu'Aladdin, Alibaba et les 40 voleurs, Sinbad et Shéhérazade. Le manga se situe aussi au Moyen-Orient.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Les mille et une nuits, féerie en quatre actes et onze tableaux, par MM. Cogniard, représentée pour la première fois, à Paris, sur le théâtre de la Porte-Saint-Martin, le 24 janvier 1843.
 Les Mille et Une Nuits : adaptation et mise en scène de Jérôme Savary, musique de François Orenn Théâtre d'Orsay à Paris en 1979
-Les Mille et Une Nuits : adaptation et mise en scène d'André Fornier lors de la 11e Biennale du Fort de Bron[24] en 2007
-Les Mille et Une Nuits : adaptation et mise en scène de Mehdi Zizi et Kamal Dadi au Café de la danse à Paris du 19 au 23 juin 2007[25]
-Les Mille et Une Nuits : adaptation et mise en scène de Marie-Christine Seillac, Thibault Duperron-Seillac et Lucas Roy à Juraparc à Lons-le-Saunier le 15 mai 2008[26]
+Les Mille et Une Nuits : adaptation et mise en scène d'André Fornier lors de la 11e Biennale du Fort de Bron en 2007
+Les Mille et Une Nuits : adaptation et mise en scène de Mehdi Zizi et Kamal Dadi au Café de la danse à Paris du 19 au 23 juin 2007
+Les Mille et Une Nuits : adaptation et mise en scène de Marie-Christine Seillac, Thibault Duperron-Seillac et Lucas Roy à Juraparc à Lons-le-Saunier le 15 mai 2008
 Shérazade, Les Mille et Une Nuits : adaptation de Félix Gray et mise en scène de Yves Desgagnés, musique de Félix Gray Théâtre de L'Olympia à Montréal en 2009
-L'Amour impossible d'après les Mille et Une Nuits spectacle réalisé par Bruno de La Salle dans le cadre des Rencontres d'Aubrac[27]
-Al-Malik huwa 'l-Malik (Le roi est le roi), adaptation théâtrale des Mille et Une Nuits par le dramaturge syrien Saadallah Wannous. L'histoire raconte comment le personnage original Abu Al-Hasan nommé ici Abu Izza est piégé par le roi. Il est drogué et emmené au palace pendant son sommeil. Il se réveille dans le lit du roi et on lui fait croire qu'il est le roi. Le nouveau roi va rester roi car le « vrai » roi n'arrive pas à récupérer son trône étant donné que personne ne voit la différence de ses traits avec le nouveau roi. Les acteurs vont donner des commentaires sur la nature et l'abus d'autorité. Il insère des procédés de distanciation et sépare ses scènes d'interludes avec un rappel constant sur le fait qu'il s'agit d'un jeu de théâtre. La pièce a été traduite en anglais[28], mais pas en français à ce jour.
-Musique classique
+L'Amour impossible d'après les Mille et Une Nuits spectacle réalisé par Bruno de La Salle dans le cadre des Rencontres d'Aubrac
+Al-Malik huwa 'l-Malik (Le roi est le roi), adaptation théâtrale des Mille et Une Nuits par le dramaturge syrien Saadallah Wannous. L'histoire raconte comment le personnage original Abu Al-Hasan nommé ici Abu Izza est piégé par le roi. Il est drogué et emmené au palace pendant son sommeil. Il se réveille dans le lit du roi et on lui fait croire qu'il est le roi. Le nouveau roi va rester roi car le « vrai » roi n'arrive pas à récupérer son trône étant donné que personne ne voit la différence de ses traits avec le nouveau roi. Les acteurs vont donner des commentaires sur la nature et l'abus d'autorité. Il insère des procédés de distanciation et sépare ses scènes d'interludes avec un rappel constant sur le fait qu'il s'agit d'un jeu de théâtre. La pièce a été traduite en anglais, mais pas en français à ce jour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Musique classique</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 François-Adrien Boieldieu : Le calife de Bagdad (1800)
 Carl Maria von Weber : Abu Hassan (1811)
 Luigi Cherubini : Ali Baba (1833)
@@ -809,45 +1119,184 @@
 Carl Davis : Aladdin
 Robert Schumann : Sheherazade (Album für die Jugend, 1848)
 Oum Kalthoum : Alf leila wa leila (arabe)
-En bandes dessinées
-3 Souhaits aux éditions Drugstore, dessin de Paolo Martinello et scénario de Mathieu Gabella
-Les Milles et Une Nuits aux éditions Les Humanoïdes associés, dessins de Richard Corben et scénario de Jan Strnad.
-Jeu de société
-Tales of Arabian Nights de Eric Goldberg (États-Unis 1985/2009) : Ce jeu de plateau basé sur le principe des livres-jeux reprend le cadre et les principales composantes de l'œuvre littéraire. Il a été traduit une première fois par les éditions Gallimard sous le titre Le jeu des Mille et Une Nuits (1987) puis une seconde fois sous son titre original par Filosofia (2015).
-Jeu vidéo
-Prince of Persia : Série de jeu de plates-formes et d'action, parue en 1989. Reprenant un univers, une ambiance et certains codes des Mille et Une Nuits.
-Comédie musicale
-Sinbad et la légende de Mizan (2013)[29]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>En bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3 Souhaits aux éditions Drugstore, dessin de Paolo Martinello et scénario de Mathieu Gabella
+Les Milles et Une Nuits aux éditions Les Humanoïdes associés, dessins de Richard Corben et scénario de Jan Strnad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Jeu de société</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tales of Arabian Nights de Eric Goldberg (États-Unis 1985/2009) : Ce jeu de plateau basé sur le principe des livres-jeux reprend le cadre et les principales composantes de l'œuvre littéraire. Il a été traduit une première fois par les éditions Gallimard sous le titre Le jeu des Mille et Une Nuits (1987) puis une seconde fois sous son titre original par Filosofia (2015).</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Jeu vidéo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Prince of Persia : Série de jeu de plates-formes et d'action, parue en 1989. Reprenant un univers, une ambiance et certains codes des Mille et Une Nuits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Comédie musicale</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sinbad et la légende de Mizan (2013)
 Les Mille et Une Vies d'Ali Baba (2000)
 Shéhérazade: Les milles et une nuits (2009)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Inspirations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Il existe également des œuvres inspirées des Mille et une nuits :
 Le Comte de Monte-Cristo, roman de Alexandre Dumas, 1844.
@@ -861,31 +1310,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Documentaire</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Les contes des 1001 nuits, Une odyssée entre Orient et Occident réalisé en 2021 par Thomas Staehler.</t>
         </is>
